--- a/data/quality_eval_v2.xlsx
+++ b/data/quality_eval_v2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="80">
   <si>
     <t>Barban, 2022</t>
   </si>
@@ -250,13 +251,24 @@
   </si>
   <si>
     <t>Ortiz, 2023</t>
+  </si>
+  <si>
+    <t>Decisions regarding confidence assessment</t>
+  </si>
+  <si>
+    <t>Yes: The impacts are specified for more than a geodistribution parameter (age, sex, socio-demographique index…)
+Yes partially: The impacts are specified only for a geodistribution parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes : Equity impacts are explicit in the framework and results
+Yes partially : Explicitly discuss the equity implications of the results </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +278,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -331,6 +351,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -734,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -778,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -822,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -866,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -998,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -1042,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1086,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -1130,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -1174,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -1214,11 +1237,11 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
+      <c r="C14" t="s">
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -1262,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -1306,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -1350,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -1393,8 +1416,8 @@
       <c r="C18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>2</v>
+      <c r="D18" t="s">
+        <v>65</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>1</v>
@@ -1438,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -1482,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
@@ -1526,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
@@ -1570,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -1614,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -1658,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -1702,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -1746,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -1786,11 +1809,11 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>2</v>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -1834,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -1878,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -1921,8 +1944,8 @@
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>2</v>
+      <c r="D30" t="s">
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>1</v>
@@ -1966,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -2010,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -2054,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
@@ -2098,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -2142,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
@@ -2186,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -2230,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
         <v>1</v>
@@ -2274,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
         <v>1</v>
@@ -2318,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
         <v>1</v>
@@ -2362,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
         <v>1</v>
@@ -2406,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -2450,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
@@ -2494,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -2538,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -2582,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -2626,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
@@ -2714,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
@@ -2758,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -2802,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
@@ -2846,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
@@ -2890,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -2934,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
@@ -2978,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
         <v>1</v>
@@ -3022,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
         <v>1</v>
@@ -3066,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
         <v>1</v>
@@ -3162,4 +3185,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/quality_eval_v2.xlsx
+++ b/data/quality_eval_v2.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="79">
   <si>
     <t>Barban, 2022</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Wang, 2022</t>
-  </si>
-  <si>
-    <t>Weyant, 2018</t>
   </si>
   <si>
     <t>Williams, 2018</t>
@@ -635,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,46 +657,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -757,13 +754,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -801,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -845,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -866,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
         <v>2</v>
@@ -889,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -939,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1021,13 +1018,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1065,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1074,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -1109,13 +1106,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1153,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -1271,12 +1268,12 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1329,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -1373,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -1397,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" t="s">
         <v>1</v>
@@ -1417,13 +1414,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>1</v>
@@ -1461,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -1470,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
         <v>1</v>
@@ -1491,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1505,13 +1502,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>1</v>
@@ -1535,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1549,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
@@ -1579,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1593,13 +1590,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
@@ -1637,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -1681,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
         <v>1</v>
@@ -1725,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -1755,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1769,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -1799,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1810,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -1857,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -1901,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -1931,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1945,13 +1942,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>1</v>
@@ -1989,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
         <v>1</v>
@@ -2033,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -2077,13 +2074,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>1</v>
@@ -2121,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -2165,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
         <v>1</v>
@@ -2209,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -2239,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2253,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
         <v>1</v>
@@ -2274,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s">
         <v>1</v>
@@ -2288,7 +2285,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2297,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
         <v>1</v>
@@ -2321,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M38" t="s">
         <v>2</v>
@@ -2341,13 +2338,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
         <v>1</v>
@@ -2359,23 +2356,23 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" t="s">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
@@ -2385,13 +2382,13 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
         <v>1</v>
@@ -2406,20 +2403,20 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
@@ -2429,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
         <v>1</v>
@@ -2450,20 +2447,20 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" t="s">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
@@ -2473,13 +2470,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
         <v>1</v>
@@ -2497,13 +2494,13 @@
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" t="s">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2517,13 +2514,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
         <v>1</v>
@@ -2561,13 +2558,13 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>1</v>
@@ -2595,7 +2592,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
@@ -2605,13 +2602,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
         <v>1</v>
@@ -2620,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>1</v>
@@ -2629,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" t="s">
         <v>2</v>
@@ -2639,17 +2636,17 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
@@ -2673,13 +2670,13 @@
         <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="s">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2690,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -2708,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>1</v>
@@ -2717,13 +2714,13 @@
         <v>2</v>
       </c>
       <c r="L47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="s">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2737,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
@@ -2772,7 +2769,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2781,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -2796,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
         <v>1</v>
@@ -2808,10 +2805,10 @@
         <v>2</v>
       </c>
       <c r="M49" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="N49" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -2825,13 +2822,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
         <v>1</v>
@@ -2840,22 +2837,22 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="L50" t="s">
         <v>2</v>
       </c>
       <c r="M50" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2869,13 +2866,13 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
         <v>1</v>
@@ -2884,13 +2881,13 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="L51" t="s">
         <v>2</v>
@@ -2899,12 +2896,12 @@
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -2913,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -2937,13 +2934,13 @@
         <v>2</v>
       </c>
       <c r="L52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" t="s">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -2957,13 +2954,13 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
         <v>1</v>
@@ -2978,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53" t="s">
         <v>1</v>
@@ -2987,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2998,16 +2995,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
         <v>1</v>
@@ -3022,16 +3019,16 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="s">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3042,10 +3039,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
         <v>1</v>
@@ -3066,16 +3063,16 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" t="s">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3086,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
         <v>1</v>
@@ -3110,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" t="s">
         <v>1</v>
@@ -3119,68 +3116,24 @@
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>2</v>
-      </c>
-      <c r="L57" t="s">
-        <v>1</v>
-      </c>
-      <c r="M57" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3191,7 +3144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3204,54 +3157,54 @@
   <sheetData>
     <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
